--- a/outputs_HGR/o__Burkholderiales_train.xlsx
+++ b/outputs_HGR/o__Burkholderiales_train.xlsx
@@ -8,8 +8,7 @@
   <sheets>
     <sheet name="f__Alcaligenaceae-b-p" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="f__Burkholderiaceae-b-p" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="f__Oxalobacteraceae-b-p" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="f__Sutterellaceae-b-p" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="f__Sutterellaceae-b-p" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="1"/>
@@ -504,7 +503,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -530,20 +529,15 @@
       </c>
       <c r="D1" s="11" t="inlineStr">
         <is>
-          <t>f__Oxalobacteraceae</t>
+          <t>f__Sutterellaceae</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">
         <is>
-          <t>f__Sutterellaceae</t>
+          <t>max</t>
         </is>
       </c>
       <c r="F1" s="11" t="inlineStr">
-        <is>
-          <t>max</t>
-        </is>
-      </c>
-      <c r="G1" s="11" t="inlineStr">
         <is>
           <t>prediction</t>
         </is>
@@ -552,7 +546,7 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>label_Achromobacter2.fasta</t>
+          <t>label_Achromobacter10.fasta</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -565,12 +559,9 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F2" t="inlineStr">
         <is>
           <t>f__Alcaligenaceae</t>
         </is>
@@ -579,7 +570,7 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>label_Achromobacter9.fasta</t>
+          <t>label_Achromobacter8.fasta</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -592,12 +583,9 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F3" t="inlineStr">
         <is>
           <t>f__Alcaligenaceae</t>
         </is>
@@ -606,7 +594,7 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>label_Achromobacter2.fasta</t>
+          <t>label_Achromobacter10.fasta</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -619,12 +607,9 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>f__Alcaligenaceae</t>
         </is>
@@ -633,7 +618,7 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>label_Achromobacter9.fasta</t>
+          <t>label_Achromobacter8.fasta</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -646,12 +631,9 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F5" t="inlineStr">
         <is>
           <t>f__Alcaligenaceae</t>
         </is>
@@ -660,25 +642,22 @@
     <row r="6">
       <c r="A6" s="11" t="inlineStr">
         <is>
-          <t>label_Achromobacter6.fasta</t>
+          <t>label_Achromobacter5.fasta</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3107549805170861</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2413149950163745</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2239650122332697</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2239650122332697</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.3107549805170861</v>
-      </c>
-      <c r="G6" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F6" t="inlineStr">
         <is>
           <t>f__Alcaligenaceae</t>
         </is>
@@ -687,7 +666,7 @@
     <row r="7">
       <c r="A7" s="11" t="inlineStr">
         <is>
-          <t>label_Achromobacter10.fasta</t>
+          <t>label_Achromobacter9.fasta</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -700,12 +679,9 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F7" t="inlineStr">
         <is>
           <t>f__Alcaligenaceae</t>
         </is>
@@ -714,7 +690,7 @@
     <row r="8">
       <c r="A8" s="11" t="inlineStr">
         <is>
-          <t>label_Achromobacter3.fasta</t>
+          <t>label_Achromobacter1.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -727,12 +703,9 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F8" t="inlineStr">
         <is>
           <t>f__Alcaligenaceae</t>
         </is>
@@ -741,25 +714,22 @@
     <row r="9">
       <c r="A9" s="11" t="inlineStr">
         <is>
-          <t>label_Achromobacter5.fasta</t>
+          <t>label_Achromobacter2.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.5760856830657507</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>2.22034687959883e-14</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>2.22034687959883e-14</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4239143169342049</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.5760856830657507</v>
-      </c>
-      <c r="G9" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F9" t="inlineStr">
         <is>
           <t>f__Alcaligenaceae</t>
         </is>
@@ -768,7 +738,7 @@
     <row r="10">
       <c r="A10" s="11" t="inlineStr">
         <is>
-          <t>label_Achromobacter8.fasta</t>
+          <t>label_Achromobacter4.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -781,12 +751,9 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F10" t="inlineStr">
         <is>
           <t>f__Alcaligenaceae</t>
         </is>
@@ -795,7 +762,7 @@
     <row r="11">
       <c r="A11" s="11" t="inlineStr">
         <is>
-          <t>label_Achromobacter0.fasta</t>
+          <t>label_Achromobacter7.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -808,12 +775,9 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F11" t="inlineStr">
         <is>
           <t>f__Alcaligenaceae</t>
         </is>
@@ -822,7 +786,7 @@
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>label_Achromobacter1.fasta</t>
+          <t>label_Achromobacter0.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -835,12 +799,9 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F12" t="inlineStr">
         <is>
           <t>f__Alcaligenaceae</t>
         </is>
@@ -849,7 +810,7 @@
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>label_Achromobacter4.fasta</t>
+          <t>label_Achromobacter3.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -862,12 +823,9 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F13" t="inlineStr">
         <is>
           <t>f__Alcaligenaceae</t>
         </is>
@@ -876,25 +834,22 @@
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>label_Achromobacter7.fasta</t>
+          <t>label_Achromobacter6.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0.3658935647364422</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>0.3392516486168266</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>0.2948547866467311</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" t="inlineStr">
+        <v>0.3658935647364422</v>
+      </c>
+      <c r="F14" t="inlineStr">
         <is>
           <t>f__Alcaligenaceae</t>
         </is>
@@ -911,7 +866,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -937,20 +892,15 @@
       </c>
       <c r="D1" s="11" t="inlineStr">
         <is>
-          <t>f__Oxalobacteraceae</t>
+          <t>f__Sutterellaceae</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">
         <is>
-          <t>f__Sutterellaceae</t>
+          <t>max</t>
         </is>
       </c>
       <c r="F1" s="11" t="inlineStr">
-        <is>
-          <t>max</t>
-        </is>
-      </c>
-      <c r="G1" s="11" t="inlineStr">
         <is>
           <t>prediction</t>
         </is>
@@ -959,7 +909,7 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>label_Ralstonia2.fasta</t>
+          <t>label_Ralstonia0.fasta</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -972,12 +922,9 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F2" t="inlineStr">
         <is>
           <t>f__Burkholderiaceae</t>
         </is>
@@ -986,7 +933,7 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>label_Ralstonia2.fasta</t>
+          <t>label_Ralstonia0.fasta</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -999,12 +946,9 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F3" t="inlineStr">
         <is>
           <t>f__Burkholderiaceae</t>
         </is>
@@ -1013,7 +957,7 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>label_Ralstonia0.fasta</t>
+          <t>label_Ralstonia2.fasta</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -1026,12 +970,9 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>f__Burkholderiaceae</t>
         </is>
@@ -1040,7 +981,7 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>label_Ralstonia1.fasta</t>
+          <t>label_Ralstonia4.fasta</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -1053,12 +994,9 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F5" t="inlineStr">
         <is>
           <t>f__Burkholderiaceae</t>
         </is>
@@ -1067,25 +1005,22 @@
     <row r="6">
       <c r="A6" s="11" t="inlineStr">
         <is>
-          <t>label_Ralstonia4.fasta</t>
+          <t>label_Ralstonia1.fasta</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>0.3246134452440202</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0.3507731095119596</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>0.3246134452440202</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" t="inlineStr">
+        <v>0.3507731095119596</v>
+      </c>
+      <c r="F6" t="inlineStr">
         <is>
           <t>f__Burkholderiaceae</t>
         </is>
@@ -1107,12 +1042,9 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F7" t="inlineStr">
         <is>
           <t>f__Burkholderiaceae</t>
         </is>
@@ -1129,7 +1061,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:F126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1155,20 +1087,15 @@
       </c>
       <c r="D1" s="11" t="inlineStr">
         <is>
-          <t>f__Oxalobacteraceae</t>
+          <t>f__Sutterellaceae</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">
         <is>
-          <t>f__Sutterellaceae</t>
+          <t>max</t>
         </is>
       </c>
       <c r="F1" s="11" t="inlineStr">
-        <is>
-          <t>max</t>
-        </is>
-      </c>
-      <c r="G1" s="11" t="inlineStr">
         <is>
           <t>prediction</t>
         </is>
@@ -1177,7 +1104,7 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>label_Oxalobacter1.fasta</t>
+          <t>label_Sutterella1.fasta</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -1190,21 +1117,18 @@
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>f__Oxalobacteraceae</t>
+        <v>1</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>label_Oxalobacter0.fasta</t>
+          <t>label_Sutterella102.fasta</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -1217,21 +1141,18 @@
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>f__Oxalobacteraceae</t>
+        <v>1</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>label_Oxalobacter2.fasta</t>
+          <t>label_Sutterella103.fasta</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -1244,149 +1165,9 @@
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>f__Oxalobacteraceae</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G126"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="11" t="inlineStr">
-        <is>
-          <t>Row</t>
-        </is>
-      </c>
-      <c r="B1" s="11" t="inlineStr">
-        <is>
-          <t>f__Alcaligenaceae</t>
-        </is>
-      </c>
-      <c r="C1" s="11" t="inlineStr">
-        <is>
-          <t>f__Burkholderiaceae</t>
-        </is>
-      </c>
-      <c r="D1" s="11" t="inlineStr">
-        <is>
-          <t>f__Oxalobacteraceae</t>
-        </is>
-      </c>
-      <c r="E1" s="11" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="F1" s="11" t="inlineStr">
-        <is>
-          <t>max</t>
-        </is>
-      </c>
-      <c r="G1" s="11" t="inlineStr">
-        <is>
-          <t>prediction</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="11" t="inlineStr">
-        <is>
-          <t>label_Sutterella0.fasta</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="11" t="inlineStr">
-        <is>
-          <t>label_Sutterella101.fasta</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="11" t="inlineStr">
-        <is>
-          <t>label_Sutterella102.fasta</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -1395,7 +1176,7 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella103.fasta</t>
+          <t>label_Sutterella11.fasta</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -1405,15 +1186,12 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -1422,7 +1200,7 @@
     <row r="6">
       <c r="A6" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella12.fasta</t>
+          <t>label_Sutterella13.fasta</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -1432,15 +1210,12 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
       </c>
-      <c r="F6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -1449,7 +1224,7 @@
     <row r="7">
       <c r="A7" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella18.fasta</t>
+          <t>label_Sutterella19.fasta</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -1459,15 +1234,12 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
       </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -1476,7 +1248,7 @@
     <row r="8">
       <c r="A8" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella25.fasta</t>
+          <t>label_Sutterella26.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -1486,15 +1258,12 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
       </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -1503,7 +1272,7 @@
     <row r="9">
       <c r="A9" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella33.fasta</t>
+          <t>label_Sutterella34.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1513,15 +1282,12 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
       </c>
-      <c r="F9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -1530,7 +1296,7 @@
     <row r="10">
       <c r="A10" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella37.fasta</t>
+          <t>label_Sutterella38.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1540,15 +1306,12 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
       </c>
-      <c r="F10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -1557,7 +1320,7 @@
     <row r="11">
       <c r="A11" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella47.fasta</t>
+          <t>label_Sutterella48.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1567,15 +1330,12 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
       </c>
-      <c r="F11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -1584,7 +1344,7 @@
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella52.fasta</t>
+          <t>label_Sutterella53.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1594,15 +1354,12 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
       </c>
-      <c r="F12" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -1611,7 +1368,7 @@
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella58.fasta</t>
+          <t>label_Sutterella59.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1621,15 +1378,12 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
       </c>
-      <c r="F13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -1638,7 +1392,7 @@
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella65.fasta</t>
+          <t>label_Sutterella66.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1648,15 +1402,12 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
       </c>
-      <c r="F14" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -1665,7 +1416,7 @@
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella68.fasta</t>
+          <t>label_Sutterella69.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1675,15 +1426,12 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
       </c>
-      <c r="F15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -1692,7 +1440,7 @@
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella75.fasta</t>
+          <t>label_Sutterella76.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1702,15 +1450,12 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
       </c>
-      <c r="F16" t="n">
-        <v>1</v>
-      </c>
-      <c r="G16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -1719,7 +1464,7 @@
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella82.fasta</t>
+          <t>label_Sutterella83.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1729,15 +1474,12 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
       </c>
-      <c r="F17" t="n">
-        <v>1</v>
-      </c>
-      <c r="G17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -1746,7 +1488,7 @@
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella87.fasta</t>
+          <t>label_Sutterella88.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1756,15 +1498,12 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
       </c>
-      <c r="F18" t="n">
-        <v>1</v>
-      </c>
-      <c r="G18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -1773,7 +1512,7 @@
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella88.fasta</t>
+          <t>label_Sutterella89.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1783,15 +1522,12 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
       </c>
-      <c r="F19" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -1800,7 +1536,7 @@
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella9.fasta</t>
+          <t>label_Sutterella90.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1810,15 +1546,12 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
         <v>1</v>
       </c>
-      <c r="F20" t="n">
-        <v>1</v>
-      </c>
-      <c r="G20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -1827,7 +1560,7 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella94.fasta</t>
+          <t>label_Sutterella95.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1837,15 +1570,12 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
         <v>1</v>
       </c>
-      <c r="F21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -1864,15 +1594,12 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
         <v>1</v>
       </c>
-      <c r="F22" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -1881,7 +1608,7 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella0.fasta</t>
+          <t>label_Sutterella1.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1891,15 +1618,12 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
         <v>1</v>
       </c>
-      <c r="F23" t="n">
-        <v>1</v>
-      </c>
-      <c r="G23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -1908,7 +1632,7 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella101.fasta</t>
+          <t>label_Sutterella102.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -1918,15 +1642,12 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
         <v>1</v>
       </c>
-      <c r="F24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -1935,7 +1656,7 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella102.fasta</t>
+          <t>label_Sutterella103.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1945,15 +1666,12 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
         <v>1</v>
       </c>
-      <c r="F25" t="n">
-        <v>1</v>
-      </c>
-      <c r="G25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -1962,7 +1680,7 @@
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella103.fasta</t>
+          <t>label_Sutterella11.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1972,15 +1690,12 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="n">
         <v>1</v>
       </c>
-      <c r="F26" t="n">
-        <v>1</v>
-      </c>
-      <c r="G26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -1989,7 +1704,7 @@
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella12.fasta</t>
+          <t>label_Sutterella13.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1999,15 +1714,12 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="n">
         <v>1</v>
       </c>
-      <c r="F27" t="n">
-        <v>1</v>
-      </c>
-      <c r="G27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -2016,7 +1728,7 @@
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella18.fasta</t>
+          <t>label_Sutterella19.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -2026,15 +1738,12 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="n">
         <v>1</v>
       </c>
-      <c r="F28" t="n">
-        <v>1</v>
-      </c>
-      <c r="G28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -2043,7 +1752,7 @@
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella25.fasta</t>
+          <t>label_Sutterella26.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -2053,15 +1762,12 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="n">
         <v>1</v>
       </c>
-      <c r="F29" t="n">
-        <v>1</v>
-      </c>
-      <c r="G29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -2070,7 +1776,7 @@
     <row r="30">
       <c r="A30" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella33.fasta</t>
+          <t>label_Sutterella34.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -2080,15 +1786,12 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="n">
         <v>1</v>
       </c>
-      <c r="F30" t="n">
-        <v>1</v>
-      </c>
-      <c r="G30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -2097,7 +1800,7 @@
     <row r="31">
       <c r="A31" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella37.fasta</t>
+          <t>label_Sutterella38.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -2107,15 +1810,12 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="n">
         <v>1</v>
       </c>
-      <c r="F31" t="n">
-        <v>1</v>
-      </c>
-      <c r="G31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -2124,7 +1824,7 @@
     <row r="32">
       <c r="A32" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella47.fasta</t>
+          <t>label_Sutterella48.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -2134,15 +1834,12 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="n">
         <v>1</v>
       </c>
-      <c r="F32" t="n">
-        <v>1</v>
-      </c>
-      <c r="G32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -2151,7 +1848,7 @@
     <row r="33">
       <c r="A33" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella52.fasta</t>
+          <t>label_Sutterella53.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -2161,15 +1858,12 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="n">
         <v>1</v>
       </c>
-      <c r="F33" t="n">
-        <v>1</v>
-      </c>
-      <c r="G33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -2178,7 +1872,7 @@
     <row r="34">
       <c r="A34" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella58.fasta</t>
+          <t>label_Sutterella59.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -2188,15 +1882,12 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" t="n">
         <v>1</v>
       </c>
-      <c r="F34" t="n">
-        <v>1</v>
-      </c>
-      <c r="G34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -2205,7 +1896,7 @@
     <row r="35">
       <c r="A35" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella65.fasta</t>
+          <t>label_Sutterella66.fasta</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -2215,15 +1906,12 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" t="n">
         <v>1</v>
       </c>
-      <c r="F35" t="n">
-        <v>1</v>
-      </c>
-      <c r="G35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -2232,7 +1920,7 @@
     <row r="36">
       <c r="A36" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella68.fasta</t>
+          <t>label_Sutterella69.fasta</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -2242,15 +1930,12 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" t="n">
         <v>1</v>
       </c>
-      <c r="F36" t="n">
-        <v>1</v>
-      </c>
-      <c r="G36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -2259,7 +1944,7 @@
     <row r="37">
       <c r="A37" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella75.fasta</t>
+          <t>label_Sutterella76.fasta</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -2269,15 +1954,12 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37" t="n">
         <v>1</v>
       </c>
-      <c r="F37" t="n">
-        <v>1</v>
-      </c>
-      <c r="G37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -2286,7 +1968,7 @@
     <row r="38">
       <c r="A38" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella82.fasta</t>
+          <t>label_Sutterella83.fasta</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -2296,15 +1978,12 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" t="n">
         <v>1</v>
       </c>
-      <c r="F38" t="n">
-        <v>1</v>
-      </c>
-      <c r="G38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -2313,7 +1992,7 @@
     <row r="39">
       <c r="A39" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella87.fasta</t>
+          <t>label_Sutterella88.fasta</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -2323,15 +2002,12 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" t="n">
         <v>1</v>
       </c>
-      <c r="F39" t="n">
-        <v>1</v>
-      </c>
-      <c r="G39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -2340,7 +2016,7 @@
     <row r="40">
       <c r="A40" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella88.fasta</t>
+          <t>label_Sutterella89.fasta</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -2350,15 +2026,12 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" t="n">
         <v>1</v>
       </c>
-      <c r="F40" t="n">
-        <v>1</v>
-      </c>
-      <c r="G40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -2367,7 +2040,7 @@
     <row r="41">
       <c r="A41" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella9.fasta</t>
+          <t>label_Sutterella90.fasta</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -2377,15 +2050,12 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" t="n">
         <v>1</v>
       </c>
-      <c r="F41" t="n">
-        <v>1</v>
-      </c>
-      <c r="G41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -2394,7 +2064,7 @@
     <row r="42">
       <c r="A42" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella94.fasta</t>
+          <t>label_Sutterella95.fasta</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -2404,15 +2074,12 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" t="n">
         <v>1</v>
       </c>
-      <c r="F42" t="n">
-        <v>1</v>
-      </c>
-      <c r="G42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -2431,15 +2098,12 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" t="n">
         <v>1</v>
       </c>
-      <c r="F43" t="n">
-        <v>1</v>
-      </c>
-      <c r="G43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -2448,7 +2112,7 @@
     <row r="44">
       <c r="A44" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella1.fasta</t>
+          <t>label_Sutterella10.fasta</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -2458,15 +2122,12 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44" t="n">
         <v>1</v>
       </c>
-      <c r="F44" t="n">
-        <v>1</v>
-      </c>
-      <c r="G44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -2475,7 +2136,7 @@
     <row r="45">
       <c r="A45" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella10.fasta</t>
+          <t>label_Sutterella100.fasta</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -2485,15 +2146,12 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45" t="n">
         <v>1</v>
       </c>
-      <c r="F45" t="n">
-        <v>1</v>
-      </c>
-      <c r="G45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -2502,7 +2160,7 @@
     <row r="46">
       <c r="A46" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella2.fasta</t>
+          <t>label_Sutterella20.fasta</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -2512,15 +2170,12 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46" t="n">
         <v>1</v>
       </c>
-      <c r="F46" t="n">
-        <v>1</v>
-      </c>
-      <c r="G46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -2529,7 +2184,7 @@
     <row r="47">
       <c r="A47" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella22.fasta</t>
+          <t>label_Sutterella23.fasta</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -2539,15 +2194,12 @@
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47" t="n">
         <v>1</v>
       </c>
-      <c r="F47" t="n">
-        <v>1</v>
-      </c>
-      <c r="G47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -2556,7 +2208,7 @@
     <row r="48">
       <c r="A48" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella27.fasta</t>
+          <t>label_Sutterella28.fasta</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -2566,15 +2218,12 @@
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48" t="n">
         <v>1</v>
       </c>
-      <c r="F48" t="n">
-        <v>1</v>
-      </c>
-      <c r="G48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -2583,7 +2232,7 @@
     <row r="49">
       <c r="A49" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella28.fasta</t>
+          <t>label_Sutterella29.fasta</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -2593,15 +2242,12 @@
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49" t="n">
         <v>1</v>
       </c>
-      <c r="F49" t="n">
-        <v>1</v>
-      </c>
-      <c r="G49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -2610,7 +2256,7 @@
     <row r="50">
       <c r="A50" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella32.fasta</t>
+          <t>label_Sutterella33.fasta</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -2620,15 +2266,12 @@
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50" t="n">
         <v>1</v>
       </c>
-      <c r="F50" t="n">
-        <v>1</v>
-      </c>
-      <c r="G50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -2637,25 +2280,22 @@
     <row r="51">
       <c r="A51" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella35.fasta</t>
+          <t>label_Sutterella36.fasta</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.04167000521881314</v>
+        <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>0.04167000521881314</v>
+        <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>0.04167000521881314</v>
+        <v>1</v>
       </c>
       <c r="E51" t="n">
-        <v>0.8749899843435605</v>
-      </c>
-      <c r="F51" t="n">
-        <v>0.8749899843435605</v>
-      </c>
-      <c r="G51" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F51" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -2664,7 +2304,7 @@
     <row r="52">
       <c r="A52" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella39.fasta</t>
+          <t>label_Sutterella4.fasta</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -2674,15 +2314,12 @@
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E52" t="n">
         <v>1</v>
       </c>
-      <c r="F52" t="n">
-        <v>1</v>
-      </c>
-      <c r="G52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -2691,7 +2328,7 @@
     <row r="53">
       <c r="A53" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella4.fasta</t>
+          <t>label_Sutterella40.fasta</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -2701,15 +2338,12 @@
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E53" t="n">
         <v>1</v>
       </c>
-      <c r="F53" t="n">
-        <v>1</v>
-      </c>
-      <c r="G53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -2718,25 +2352,22 @@
     <row r="54">
       <c r="A54" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella50.fasta</t>
+          <t>label_Sutterella51.fasta</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.04167000521881314</v>
+        <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>0.04167000521881314</v>
+        <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>0.04167000521881314</v>
+        <v>1</v>
       </c>
       <c r="E54" t="n">
-        <v>0.8749899843435605</v>
-      </c>
-      <c r="F54" t="n">
-        <v>0.8749899843435605</v>
-      </c>
-      <c r="G54" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F54" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -2745,7 +2376,7 @@
     <row r="55">
       <c r="A55" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella57.fasta</t>
+          <t>label_Sutterella58.fasta</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -2755,15 +2386,12 @@
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E55" t="n">
         <v>1</v>
       </c>
-      <c r="F55" t="n">
-        <v>1</v>
-      </c>
-      <c r="G55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -2772,7 +2400,7 @@
     <row r="56">
       <c r="A56" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella62.fasta</t>
+          <t>label_Sutterella63.fasta</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -2782,15 +2410,12 @@
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E56" t="n">
         <v>1</v>
       </c>
-      <c r="F56" t="n">
-        <v>1</v>
-      </c>
-      <c r="G56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -2799,25 +2424,22 @@
     <row r="57">
       <c r="A57" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella66.fasta</t>
+          <t>label_Sutterella67.fasta</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.04167000521881314</v>
+        <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>0.04167000521881314</v>
+        <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>0.04167000521881314</v>
+        <v>1</v>
       </c>
       <c r="E57" t="n">
-        <v>0.8749899843435605</v>
-      </c>
-      <c r="F57" t="n">
-        <v>0.8749899843435605</v>
-      </c>
-      <c r="G57" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F57" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -2826,7 +2448,7 @@
     <row r="58">
       <c r="A58" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella7.fasta</t>
+          <t>label_Sutterella70.fasta</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -2836,15 +2458,12 @@
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E58" t="n">
         <v>1</v>
       </c>
-      <c r="F58" t="n">
-        <v>1</v>
-      </c>
-      <c r="G58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -2853,7 +2472,7 @@
     <row r="59">
       <c r="A59" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella77.fasta</t>
+          <t>label_Sutterella78.fasta</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -2863,15 +2482,12 @@
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E59" t="n">
         <v>1</v>
       </c>
-      <c r="F59" t="n">
-        <v>1</v>
-      </c>
-      <c r="G59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -2880,7 +2496,7 @@
     <row r="60">
       <c r="A60" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella78.fasta</t>
+          <t>label_Sutterella79.fasta</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -2890,15 +2506,12 @@
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E60" t="n">
         <v>1</v>
       </c>
-      <c r="F60" t="n">
-        <v>1</v>
-      </c>
-      <c r="G60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -2907,7 +2520,7 @@
     <row r="61">
       <c r="A61" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella79.fasta</t>
+          <t>label_Sutterella8.fasta</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -2917,15 +2530,12 @@
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E61" t="n">
         <v>1</v>
       </c>
-      <c r="F61" t="n">
-        <v>1</v>
-      </c>
-      <c r="G61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -2934,7 +2544,7 @@
     <row r="62">
       <c r="A62" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella80.fasta</t>
+          <t>label_Sutterella81.fasta</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -2944,15 +2554,12 @@
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E62" t="n">
         <v>1</v>
       </c>
-      <c r="F62" t="n">
-        <v>1</v>
-      </c>
-      <c r="G62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -2961,7 +2568,7 @@
     <row r="63">
       <c r="A63" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella93.fasta</t>
+          <t>label_Sutterella94.fasta</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -2971,15 +2578,12 @@
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E63" t="n">
         <v>1</v>
       </c>
-      <c r="F63" t="n">
-        <v>1</v>
-      </c>
-      <c r="G63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -2988,7 +2592,7 @@
     <row r="64">
       <c r="A64" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella11.fasta</t>
+          <t>label_Sutterella12.fasta</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -2998,15 +2602,12 @@
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E64" t="n">
         <v>1</v>
       </c>
-      <c r="F64" t="n">
-        <v>1</v>
-      </c>
-      <c r="G64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -3015,7 +2616,7 @@
     <row r="65">
       <c r="A65" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella16.fasta</t>
+          <t>label_Sutterella17.fasta</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -3025,15 +2626,12 @@
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E65" t="n">
         <v>1</v>
       </c>
-      <c r="F65" t="n">
-        <v>1</v>
-      </c>
-      <c r="G65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -3042,7 +2640,7 @@
     <row r="66">
       <c r="A66" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella17.fasta</t>
+          <t>label_Sutterella18.fasta</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -3052,15 +2650,12 @@
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E66" t="n">
         <v>1</v>
       </c>
-      <c r="F66" t="n">
-        <v>1</v>
-      </c>
-      <c r="G66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -3069,7 +2664,7 @@
     <row r="67">
       <c r="A67" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella19.fasta</t>
+          <t>label_Sutterella2.fasta</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -3079,15 +2674,12 @@
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E67" t="n">
         <v>1</v>
       </c>
-      <c r="F67" t="n">
-        <v>1</v>
-      </c>
-      <c r="G67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -3096,7 +2688,7 @@
     <row r="68">
       <c r="A68" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella21.fasta</t>
+          <t>label_Sutterella22.fasta</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -3106,15 +2698,12 @@
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E68" t="n">
         <v>1</v>
       </c>
-      <c r="F68" t="n">
-        <v>1</v>
-      </c>
-      <c r="G68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -3123,7 +2712,7 @@
     <row r="69">
       <c r="A69" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella3.fasta</t>
+          <t>label_Sutterella30.fasta</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -3133,15 +2722,12 @@
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E69" t="n">
         <v>1</v>
       </c>
-      <c r="F69" t="n">
-        <v>1</v>
-      </c>
-      <c r="G69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -3150,7 +2736,7 @@
     <row r="70">
       <c r="A70" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella31.fasta</t>
+          <t>label_Sutterella32.fasta</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -3160,15 +2746,12 @@
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E70" t="n">
         <v>1</v>
       </c>
-      <c r="F70" t="n">
-        <v>1</v>
-      </c>
-      <c r="G70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -3177,25 +2760,22 @@
     <row r="71">
       <c r="A71" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella34.fasta</t>
+          <t>label_Sutterella35.fasta</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0</v>
+        <v>0.04878445339250682</v>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>0.04878445339250682</v>
       </c>
       <c r="D71" t="n">
-        <v>0</v>
+        <v>0.9024310932149864</v>
       </c>
       <c r="E71" t="n">
-        <v>1</v>
-      </c>
-      <c r="F71" t="n">
-        <v>1</v>
-      </c>
-      <c r="G71" t="inlineStr">
+        <v>0.9024310932149864</v>
+      </c>
+      <c r="F71" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -3204,7 +2784,7 @@
     <row r="72">
       <c r="A72" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella43.fasta</t>
+          <t>label_Sutterella44.fasta</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -3214,15 +2794,12 @@
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E72" t="n">
         <v>1</v>
       </c>
-      <c r="F72" t="n">
-        <v>1</v>
-      </c>
-      <c r="G72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -3231,7 +2808,7 @@
     <row r="73">
       <c r="A73" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella45.fasta</t>
+          <t>label_Sutterella46.fasta</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -3241,15 +2818,12 @@
         <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E73" t="n">
         <v>1</v>
       </c>
-      <c r="F73" t="n">
-        <v>1</v>
-      </c>
-      <c r="G73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -3258,7 +2832,7 @@
     <row r="74">
       <c r="A74" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella48.fasta</t>
+          <t>label_Sutterella49.fasta</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -3268,15 +2842,12 @@
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E74" t="n">
         <v>1</v>
       </c>
-      <c r="F74" t="n">
-        <v>1</v>
-      </c>
-      <c r="G74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -3285,7 +2856,7 @@
     <row r="75">
       <c r="A75" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella59.fasta</t>
+          <t>label_Sutterella6.fasta</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -3295,15 +2866,12 @@
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E75" t="n">
         <v>1</v>
       </c>
-      <c r="F75" t="n">
-        <v>1</v>
-      </c>
-      <c r="G75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -3312,25 +2880,22 @@
     <row r="76">
       <c r="A76" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella60.fasta</t>
+          <t>label_Sutterella61.fasta</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.03626094459306099</v>
+        <v>0</v>
       </c>
       <c r="C76" t="n">
-        <v>2.219862948486327e-14</v>
+        <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>2.219862948486327e-14</v>
+        <v>1</v>
       </c>
       <c r="E76" t="n">
-        <v>0.9637390554068946</v>
-      </c>
-      <c r="F76" t="n">
-        <v>0.9637390554068946</v>
-      </c>
-      <c r="G76" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F76" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -3339,7 +2904,7 @@
     <row r="77">
       <c r="A77" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella64.fasta</t>
+          <t>label_Sutterella65.fasta</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -3349,15 +2914,12 @@
         <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E77" t="n">
         <v>1</v>
       </c>
-      <c r="F77" t="n">
-        <v>1</v>
-      </c>
-      <c r="G77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -3366,7 +2928,7 @@
     <row r="78">
       <c r="A78" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella69.fasta</t>
+          <t>label_Sutterella7.fasta</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -3376,15 +2938,12 @@
         <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E78" t="n">
         <v>1</v>
       </c>
-      <c r="F78" t="n">
-        <v>1</v>
-      </c>
-      <c r="G78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -3393,7 +2952,7 @@
     <row r="79">
       <c r="A79" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella73.fasta</t>
+          <t>label_Sutterella74.fasta</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -3403,15 +2962,12 @@
         <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E79" t="n">
         <v>1</v>
       </c>
-      <c r="F79" t="n">
-        <v>1</v>
-      </c>
-      <c r="G79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -3420,7 +2976,7 @@
     <row r="80">
       <c r="A80" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella8.fasta</t>
+          <t>label_Sutterella80.fasta</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -3430,15 +2986,12 @@
         <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E80" t="n">
         <v>1</v>
       </c>
-      <c r="F80" t="n">
-        <v>1</v>
-      </c>
-      <c r="G80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -3447,7 +3000,7 @@
     <row r="81">
       <c r="A81" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella83.fasta</t>
+          <t>label_Sutterella84.fasta</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -3457,15 +3010,12 @@
         <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E81" t="n">
         <v>1</v>
       </c>
-      <c r="F81" t="n">
-        <v>1</v>
-      </c>
-      <c r="G81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -3474,7 +3024,7 @@
     <row r="82">
       <c r="A82" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella95.fasta</t>
+          <t>label_Sutterella96.fasta</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -3484,15 +3034,12 @@
         <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E82" t="n">
         <v>1</v>
       </c>
-      <c r="F82" t="n">
-        <v>1</v>
-      </c>
-      <c r="G82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -3501,7 +3048,7 @@
     <row r="83">
       <c r="A83" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella96.fasta</t>
+          <t>label_Sutterella98.fasta</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -3511,15 +3058,12 @@
         <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E83" t="n">
         <v>1</v>
       </c>
-      <c r="F83" t="n">
-        <v>1</v>
-      </c>
-      <c r="G83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -3528,7 +3072,7 @@
     <row r="84">
       <c r="A84" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella98.fasta</t>
+          <t>label_Sutterella14.fasta</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -3538,15 +3082,12 @@
         <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E84" t="n">
         <v>1</v>
       </c>
-      <c r="F84" t="n">
-        <v>1</v>
-      </c>
-      <c r="G84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -3555,7 +3096,7 @@
     <row r="85">
       <c r="A85" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella13.fasta</t>
+          <t>label_Sutterella16.fasta</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -3565,15 +3106,12 @@
         <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E85" t="n">
         <v>1</v>
       </c>
-      <c r="F85" t="n">
-        <v>1</v>
-      </c>
-      <c r="G85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -3582,7 +3120,7 @@
     <row r="86">
       <c r="A86" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella15.fasta</t>
+          <t>label_Sutterella21.fasta</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -3592,15 +3130,12 @@
         <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E86" t="n">
         <v>1</v>
       </c>
-      <c r="F86" t="n">
-        <v>1</v>
-      </c>
-      <c r="G86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -3609,7 +3144,7 @@
     <row r="87">
       <c r="A87" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella20.fasta</t>
+          <t>label_Sutterella24.fasta</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -3619,15 +3154,12 @@
         <v>0</v>
       </c>
       <c r="D87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E87" t="n">
         <v>1</v>
       </c>
-      <c r="F87" t="n">
-        <v>1</v>
-      </c>
-      <c r="G87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -3636,7 +3168,7 @@
     <row r="88">
       <c r="A88" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella23.fasta</t>
+          <t>label_Sutterella25.fasta</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -3646,15 +3178,12 @@
         <v>0</v>
       </c>
       <c r="D88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E88" t="n">
         <v>1</v>
       </c>
-      <c r="F88" t="n">
-        <v>1</v>
-      </c>
-      <c r="G88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -3663,7 +3192,7 @@
     <row r="89">
       <c r="A89" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella24.fasta</t>
+          <t>label_Sutterella27.fasta</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -3673,15 +3202,12 @@
         <v>0</v>
       </c>
       <c r="D89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E89" t="n">
         <v>1</v>
       </c>
-      <c r="F89" t="n">
-        <v>1</v>
-      </c>
-      <c r="G89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -3690,7 +3216,7 @@
     <row r="90">
       <c r="A90" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella26.fasta</t>
+          <t>label_Sutterella31.fasta</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -3700,15 +3226,12 @@
         <v>0</v>
       </c>
       <c r="D90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E90" t="n">
         <v>1</v>
       </c>
-      <c r="F90" t="n">
-        <v>1</v>
-      </c>
-      <c r="G90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -3717,7 +3240,7 @@
     <row r="91">
       <c r="A91" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella30.fasta</t>
+          <t>label_Sutterella37.fasta</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -3727,15 +3250,12 @@
         <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E91" t="n">
         <v>1</v>
       </c>
-      <c r="F91" t="n">
-        <v>1</v>
-      </c>
-      <c r="G91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -3744,7 +3264,7 @@
     <row r="92">
       <c r="A92" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella36.fasta</t>
+          <t>label_Sutterella41.fasta</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -3754,15 +3274,12 @@
         <v>0</v>
       </c>
       <c r="D92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E92" t="n">
         <v>1</v>
       </c>
-      <c r="F92" t="n">
-        <v>1</v>
-      </c>
-      <c r="G92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -3771,7 +3288,7 @@
     <row r="93">
       <c r="A93" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella40.fasta</t>
+          <t>label_Sutterella43.fasta</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -3781,15 +3298,12 @@
         <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E93" t="n">
         <v>1</v>
       </c>
-      <c r="F93" t="n">
-        <v>1</v>
-      </c>
-      <c r="G93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -3798,7 +3312,7 @@
     <row r="94">
       <c r="A94" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella42.fasta</t>
+          <t>label_Sutterella45.fasta</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -3808,15 +3322,12 @@
         <v>0</v>
       </c>
       <c r="D94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E94" t="n">
         <v>1</v>
       </c>
-      <c r="F94" t="n">
-        <v>1</v>
-      </c>
-      <c r="G94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -3825,7 +3336,7 @@
     <row r="95">
       <c r="A95" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella44.fasta</t>
+          <t>label_Sutterella5.fasta</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -3835,15 +3346,12 @@
         <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E95" t="n">
         <v>1</v>
       </c>
-      <c r="F95" t="n">
-        <v>1</v>
-      </c>
-      <c r="G95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -3852,7 +3360,7 @@
     <row r="96">
       <c r="A96" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella49.fasta</t>
+          <t>label_Sutterella54.fasta</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -3862,15 +3370,12 @@
         <v>0</v>
       </c>
       <c r="D96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E96" t="n">
         <v>1</v>
       </c>
-      <c r="F96" t="n">
-        <v>1</v>
-      </c>
-      <c r="G96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -3879,7 +3384,7 @@
     <row r="97">
       <c r="A97" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella53.fasta</t>
+          <t>label_Sutterella55.fasta</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -3889,15 +3394,12 @@
         <v>0</v>
       </c>
       <c r="D97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E97" t="n">
         <v>1</v>
       </c>
-      <c r="F97" t="n">
-        <v>1</v>
-      </c>
-      <c r="G97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -3906,7 +3408,7 @@
     <row r="98">
       <c r="A98" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella54.fasta</t>
+          <t>label_Sutterella56.fasta</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -3916,15 +3418,12 @@
         <v>0</v>
       </c>
       <c r="D98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E98" t="n">
         <v>1</v>
       </c>
-      <c r="F98" t="n">
-        <v>1</v>
-      </c>
-      <c r="G98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -3933,7 +3432,7 @@
     <row r="99">
       <c r="A99" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella55.fasta</t>
+          <t>label_Sutterella68.fasta</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -3943,15 +3442,12 @@
         <v>0</v>
       </c>
       <c r="D99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E99" t="n">
         <v>1</v>
       </c>
-      <c r="F99" t="n">
-        <v>1</v>
-      </c>
-      <c r="G99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -3960,7 +3456,7 @@
     <row r="100">
       <c r="A100" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella67.fasta</t>
+          <t>label_Sutterella71.fasta</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -3970,15 +3466,12 @@
         <v>0</v>
       </c>
       <c r="D100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E100" t="n">
         <v>1</v>
       </c>
-      <c r="F100" t="n">
-        <v>1</v>
-      </c>
-      <c r="G100" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -3987,7 +3480,7 @@
     <row r="101">
       <c r="A101" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella70.fasta</t>
+          <t>label_Sutterella77.fasta</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -3997,15 +3490,12 @@
         <v>0</v>
       </c>
       <c r="D101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E101" t="n">
         <v>1</v>
       </c>
-      <c r="F101" t="n">
-        <v>1</v>
-      </c>
-      <c r="G101" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -4014,7 +3504,7 @@
     <row r="102">
       <c r="A102" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella76.fasta</t>
+          <t>label_Sutterella82.fasta</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -4024,15 +3514,12 @@
         <v>0</v>
       </c>
       <c r="D102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E102" t="n">
         <v>1</v>
       </c>
-      <c r="F102" t="n">
-        <v>1</v>
-      </c>
-      <c r="G102" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -4041,7 +3528,7 @@
     <row r="103">
       <c r="A103" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella81.fasta</t>
+          <t>label_Sutterella87.fasta</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -4051,15 +3538,12 @@
         <v>0</v>
       </c>
       <c r="D103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E103" t="n">
         <v>1</v>
       </c>
-      <c r="F103" t="n">
-        <v>1</v>
-      </c>
-      <c r="G103" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -4068,7 +3552,7 @@
     <row r="104">
       <c r="A104" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella86.fasta</t>
+          <t>label_Sutterella92.fasta</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -4078,15 +3562,12 @@
         <v>0</v>
       </c>
       <c r="D104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E104" t="n">
         <v>1</v>
       </c>
-      <c r="F104" t="n">
-        <v>1</v>
-      </c>
-      <c r="G104" t="inlineStr">
+      <c r="F104" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -4095,7 +3576,7 @@
     <row r="105">
       <c r="A105" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella91.fasta</t>
+          <t>label_Sutterella99.fasta</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -4105,15 +3586,12 @@
         <v>0</v>
       </c>
       <c r="D105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E105" t="n">
         <v>1</v>
       </c>
-      <c r="F105" t="n">
-        <v>1</v>
-      </c>
-      <c r="G105" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -4122,7 +3600,7 @@
     <row r="106">
       <c r="A106" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella99.fasta</t>
+          <t>label_Sutterella0.fasta</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -4132,15 +3610,12 @@
         <v>0</v>
       </c>
       <c r="D106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E106" t="n">
         <v>1</v>
       </c>
-      <c r="F106" t="n">
-        <v>1</v>
-      </c>
-      <c r="G106" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -4149,7 +3624,7 @@
     <row r="107">
       <c r="A107" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella100.fasta</t>
+          <t>label_Sutterella101.fasta</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -4159,15 +3634,12 @@
         <v>0</v>
       </c>
       <c r="D107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E107" t="n">
         <v>1</v>
       </c>
-      <c r="F107" t="n">
-        <v>1</v>
-      </c>
-      <c r="G107" t="inlineStr">
+      <c r="F107" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -4176,7 +3648,7 @@
     <row r="108">
       <c r="A108" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella14.fasta</t>
+          <t>label_Sutterella15.fasta</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -4186,15 +3658,12 @@
         <v>0</v>
       </c>
       <c r="D108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E108" t="n">
         <v>1</v>
       </c>
-      <c r="F108" t="n">
-        <v>1</v>
-      </c>
-      <c r="G108" t="inlineStr">
+      <c r="F108" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -4203,7 +3672,7 @@
     <row r="109">
       <c r="A109" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella29.fasta</t>
+          <t>label_Sutterella3.fasta</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -4213,15 +3682,12 @@
         <v>0</v>
       </c>
       <c r="D109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E109" t="n">
         <v>1</v>
       </c>
-      <c r="F109" t="n">
-        <v>1</v>
-      </c>
-      <c r="G109" t="inlineStr">
+      <c r="F109" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -4230,7 +3696,7 @@
     <row r="110">
       <c r="A110" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella38.fasta</t>
+          <t>label_Sutterella39.fasta</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -4240,15 +3706,12 @@
         <v>0</v>
       </c>
       <c r="D110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E110" t="n">
         <v>1</v>
       </c>
-      <c r="F110" t="n">
-        <v>1</v>
-      </c>
-      <c r="G110" t="inlineStr">
+      <c r="F110" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -4257,7 +3720,7 @@
     <row r="111">
       <c r="A111" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella41.fasta</t>
+          <t>label_Sutterella42.fasta</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -4267,15 +3730,12 @@
         <v>0</v>
       </c>
       <c r="D111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E111" t="n">
         <v>1</v>
       </c>
-      <c r="F111" t="n">
-        <v>1</v>
-      </c>
-      <c r="G111" t="inlineStr">
+      <c r="F111" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -4284,7 +3744,7 @@
     <row r="112">
       <c r="A112" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella46.fasta</t>
+          <t>label_Sutterella47.fasta</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -4294,15 +3754,12 @@
         <v>0</v>
       </c>
       <c r="D112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E112" t="n">
         <v>1</v>
       </c>
-      <c r="F112" t="n">
-        <v>1</v>
-      </c>
-      <c r="G112" t="inlineStr">
+      <c r="F112" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -4311,7 +3768,7 @@
     <row r="113">
       <c r="A113" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella5.fasta</t>
+          <t>label_Sutterella50.fasta</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -4321,15 +3778,12 @@
         <v>0</v>
       </c>
       <c r="D113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E113" t="n">
         <v>1</v>
       </c>
-      <c r="F113" t="n">
-        <v>1</v>
-      </c>
-      <c r="G113" t="inlineStr">
+      <c r="F113" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -4338,7 +3792,7 @@
     <row r="114">
       <c r="A114" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella51.fasta</t>
+          <t>label_Sutterella52.fasta</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -4348,15 +3802,12 @@
         <v>0</v>
       </c>
       <c r="D114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E114" t="n">
         <v>1</v>
       </c>
-      <c r="F114" t="n">
-        <v>1</v>
-      </c>
-      <c r="G114" t="inlineStr">
+      <c r="F114" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -4365,7 +3816,7 @@
     <row r="115">
       <c r="A115" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella56.fasta</t>
+          <t>label_Sutterella57.fasta</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -4375,15 +3826,12 @@
         <v>0</v>
       </c>
       <c r="D115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E115" t="n">
         <v>1</v>
       </c>
-      <c r="F115" t="n">
-        <v>1</v>
-      </c>
-      <c r="G115" t="inlineStr">
+      <c r="F115" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -4392,25 +3840,22 @@
     <row r="116">
       <c r="A116" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella6.fasta</t>
+          <t>label_Sutterella60.fasta</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0</v>
+        <v>0.04204401896872961</v>
       </c>
       <c r="C116" t="n">
-        <v>0</v>
+        <v>2.219905557310182e-14</v>
       </c>
       <c r="D116" t="n">
-        <v>0</v>
+        <v>0.9579559810312481</v>
       </c>
       <c r="E116" t="n">
-        <v>1</v>
-      </c>
-      <c r="F116" t="n">
-        <v>1</v>
-      </c>
-      <c r="G116" t="inlineStr">
+        <v>0.9579559810312481</v>
+      </c>
+      <c r="F116" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -4419,7 +3864,7 @@
     <row r="117">
       <c r="A117" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella61.fasta</t>
+          <t>label_Sutterella62.fasta</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -4429,15 +3874,12 @@
         <v>0</v>
       </c>
       <c r="D117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E117" t="n">
         <v>1</v>
       </c>
-      <c r="F117" t="n">
-        <v>1</v>
-      </c>
-      <c r="G117" t="inlineStr">
+      <c r="F117" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -4446,7 +3888,7 @@
     <row r="118">
       <c r="A118" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella63.fasta</t>
+          <t>label_Sutterella64.fasta</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -4456,15 +3898,12 @@
         <v>0</v>
       </c>
       <c r="D118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E118" t="n">
         <v>1</v>
       </c>
-      <c r="F118" t="n">
-        <v>1</v>
-      </c>
-      <c r="G118" t="inlineStr">
+      <c r="F118" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -4473,7 +3912,7 @@
     <row r="119">
       <c r="A119" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella71.fasta</t>
+          <t>label_Sutterella72.fasta</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -4483,15 +3922,12 @@
         <v>0</v>
       </c>
       <c r="D119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E119" t="n">
         <v>1</v>
       </c>
-      <c r="F119" t="n">
-        <v>1</v>
-      </c>
-      <c r="G119" t="inlineStr">
+      <c r="F119" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -4500,7 +3936,7 @@
     <row r="120">
       <c r="A120" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella72.fasta</t>
+          <t>label_Sutterella73.fasta</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -4510,15 +3946,12 @@
         <v>0</v>
       </c>
       <c r="D120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E120" t="n">
         <v>1</v>
       </c>
-      <c r="F120" t="n">
-        <v>1</v>
-      </c>
-      <c r="G120" t="inlineStr">
+      <c r="F120" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -4527,7 +3960,7 @@
     <row r="121">
       <c r="A121" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella74.fasta</t>
+          <t>label_Sutterella75.fasta</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -4537,15 +3970,12 @@
         <v>0</v>
       </c>
       <c r="D121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E121" t="n">
         <v>1</v>
       </c>
-      <c r="F121" t="n">
-        <v>1</v>
-      </c>
-      <c r="G121" t="inlineStr">
+      <c r="F121" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -4554,7 +3984,7 @@
     <row r="122">
       <c r="A122" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella84.fasta</t>
+          <t>label_Sutterella85.fasta</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -4564,15 +3994,12 @@
         <v>0</v>
       </c>
       <c r="D122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E122" t="n">
         <v>1</v>
       </c>
-      <c r="F122" t="n">
-        <v>1</v>
-      </c>
-      <c r="G122" t="inlineStr">
+      <c r="F122" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -4581,7 +4008,7 @@
     <row r="123">
       <c r="A123" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella85.fasta</t>
+          <t>label_Sutterella86.fasta</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -4591,15 +4018,12 @@
         <v>0</v>
       </c>
       <c r="D123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E123" t="n">
         <v>1</v>
       </c>
-      <c r="F123" t="n">
-        <v>1</v>
-      </c>
-      <c r="G123" t="inlineStr">
+      <c r="F123" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -4608,7 +4032,7 @@
     <row r="124">
       <c r="A124" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella89.fasta</t>
+          <t>label_Sutterella9.fasta</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -4618,15 +4042,12 @@
         <v>0</v>
       </c>
       <c r="D124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E124" t="n">
         <v>1</v>
       </c>
-      <c r="F124" t="n">
-        <v>1</v>
-      </c>
-      <c r="G124" t="inlineStr">
+      <c r="F124" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -4635,7 +4056,7 @@
     <row r="125">
       <c r="A125" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella90.fasta</t>
+          <t>label_Sutterella91.fasta</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -4645,15 +4066,12 @@
         <v>0</v>
       </c>
       <c r="D125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E125" t="n">
         <v>1</v>
       </c>
-      <c r="F125" t="n">
-        <v>1</v>
-      </c>
-      <c r="G125" t="inlineStr">
+      <c r="F125" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -4662,7 +4080,7 @@
     <row r="126">
       <c r="A126" s="11" t="inlineStr">
         <is>
-          <t>label_Sutterella92.fasta</t>
+          <t>label_Sutterella93.fasta</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -4672,15 +4090,12 @@
         <v>0</v>
       </c>
       <c r="D126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E126" t="n">
         <v>1</v>
       </c>
-      <c r="F126" t="n">
-        <v>1</v>
-      </c>
-      <c r="G126" t="inlineStr">
+      <c r="F126" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
